--- a/방명록/방명록 테이블명세(2021-05-18).xlsx
+++ b/방명록/방명록 테이블명세(2021-05-18).xlsx
@@ -926,7 +926,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E12"/>
+      <selection activeCell="E7" sqref="E7:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2008,10 +2008,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
